--- a/W8/Full_Calib.xlsx
+++ b/W8/Full_Calib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schir\Desktop\Code_Projects\GITHUB\Ultra-Wide-Band-M202\W8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19411117-447B-41EB-9AEB-0CC1F92EE71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B328B1-82F7-4C87-B15F-A234B9C88840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{BB0F7A02-6408-410D-9C3E-38F7C0CDF73A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Distanc Real (in)</t>
   </si>
@@ -44,19 +44,28 @@
     <t>Anchor #1</t>
   </si>
   <si>
-    <t xml:space="preserve">Measuered (in) (Offset =  16385) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measuered (in) (Offset =  16400) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measuered (in) (Offset =  16415) </t>
-  </si>
-  <si>
     <t>Anchor #2</t>
   </si>
   <si>
     <t>anchor 1 is more consistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distanc Real </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measuered dist (Offset =  16415) </t>
+  </si>
+  <si>
+    <t>Measured dist (Offset =  16385)</t>
+  </si>
+  <si>
+    <t>Measured dist (Offset =  16400)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measuered dist (Offset =  16385) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measuered dist (Offset =  16400) </t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Measuered (in) (Offset =  16385) </c:v>
+                  <c:v>Measuered dist (Offset =  16385) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -530,7 +539,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Measuered (in) (Offset =  16400) </c:v>
+                  <c:v>Measuered dist (Offset =  16400) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -695,7 +704,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Measuered (in) (Offset =  16415) </c:v>
+                  <c:v>Measuered dist (Offset =  16415) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -883,6 +892,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Actual</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Distance (Inches)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -945,6 +1014,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Observed Distance (inches)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1159,7 +1284,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distanc Real (in)</c:v>
+                  <c:v>Distanc Real </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1318,7 +1443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Measuered (in) (Offset =  16385) </c:v>
+                  <c:v>Measured dist (Offset =  16385)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1477,7 +1602,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Measuered (in) (Offset =  16400) </c:v>
+                  <c:v>Measured dist (Offset =  16400)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1636,7 +1761,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Measuered (in) (Offset =  16415) </c:v>
+                  <c:v>Measuered dist (Offset =  16415) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1818,6 +1943,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Actual</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Distance (inches)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1880,6 +2065,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Observed Distance (Inches)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3115,8 +3356,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>468442</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80572</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -3151,8 +3392,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1663775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60685</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -3485,8 +3726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2BF8E0-7B0F-420D-98D0-D6F3C7FD5FF8}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3511,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3811,29 +4052,29 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
